--- a/Results/results_men.xlsx
+++ b/Results/results_men.xlsx
@@ -409,22 +409,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>3.367868672252386</v>
+        <v>3.366303623731205</v>
       </c>
       <c r="D2">
-        <v>12.16990540133703</v>
+        <v>12.15714401385543</v>
       </c>
       <c r="E2">
-        <v>1.748999122802654</v>
+        <v>1.737188663037162</v>
       </c>
       <c r="F2">
-        <v>4.015623133956952</v>
+        <v>4.004564280816123</v>
       </c>
       <c r="G2">
-        <v>3.653626624253504</v>
+        <v>3.652049221412493</v>
       </c>
       <c r="H2">
-        <v>24.95602295460252</v>
+        <v>24.91724980285242</v>
       </c>
     </row>
     <row r="3">
@@ -437,22 +437,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>4.687858192783213</v>
+        <v>4.686592407434943</v>
       </c>
       <c r="D3">
-        <v>12.72893382937644</v>
+        <v>12.74007630712849</v>
       </c>
       <c r="E3">
-        <v>1.063861653108825</v>
+        <v>1.067978942660879</v>
       </c>
       <c r="F3">
-        <v>5.827251758032741</v>
+        <v>5.785149508426985</v>
       </c>
       <c r="G3">
-        <v>4.642812936485146</v>
+        <v>4.629681100983577</v>
       </c>
       <c r="H3">
-        <v>28.95071836978637</v>
+        <v>28.90947826663487</v>
       </c>
     </row>
     <row r="4">
@@ -465,22 +465,22 @@
         </is>
       </c>
       <c r="C4">
-        <v>7.665543233338088</v>
+        <v>7.655722422417413</v>
       </c>
       <c r="D4">
-        <v>11.32905560485243</v>
+        <v>11.33642055198433</v>
       </c>
       <c r="E4">
-        <v>0.8763055175210696</v>
+        <v>0.8619887241378588</v>
       </c>
       <c r="F4">
-        <v>9.627423182790858</v>
+        <v>9.6321956492387</v>
       </c>
       <c r="G4">
-        <v>4.471843512311404</v>
+        <v>4.461747400534877</v>
       </c>
       <c r="H4">
-        <v>33.97017105081385</v>
+        <v>33.94807474831318</v>
       </c>
     </row>
     <row r="5">
@@ -493,22 +493,22 @@
         </is>
       </c>
       <c r="C5">
-        <v>3.062187206200391</v>
+        <v>3.056804037521745</v>
       </c>
       <c r="D5">
-        <v>11.30095906580892</v>
+        <v>11.28969770140409</v>
       </c>
       <c r="E5">
-        <v>2.706645495897704</v>
+        <v>2.634483856901404</v>
       </c>
       <c r="F5">
-        <v>3.353420684764564</v>
+        <v>3.383079511480429</v>
       </c>
       <c r="G5">
-        <v>2.508064306596661</v>
+        <v>2.530826876317968</v>
       </c>
       <c r="H5">
-        <v>22.93127675926824</v>
+        <v>22.89489198362563</v>
       </c>
     </row>
     <row r="6">
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="C6">
-        <v>4.431000551283574</v>
+        <v>4.419344227387025</v>
       </c>
       <c r="D6">
-        <v>12.08223028587142</v>
+        <v>12.08477614690689</v>
       </c>
       <c r="E6">
-        <v>1.755952070960252</v>
+        <v>1.72254167945185</v>
       </c>
       <c r="F6">
-        <v>5.155560254335901</v>
+        <v>5.157664722330637</v>
       </c>
       <c r="G6">
-        <v>3.447049066969249</v>
+        <v>3.462173094514133</v>
       </c>
       <c r="H6">
-        <v>26.87179222942039</v>
+        <v>26.84649987059054</v>
       </c>
     </row>
     <row r="7">
@@ -549,22 +549,22 @@
         </is>
       </c>
       <c r="C7">
-        <v>7.475683165440112</v>
+        <v>7.446834057065592</v>
       </c>
       <c r="D7">
-        <v>10.80519923755975</v>
+        <v>10.79877460733823</v>
       </c>
       <c r="E7">
-        <v>1.37209630337009</v>
+        <v>1.318006191099182</v>
       </c>
       <c r="F7">
-        <v>9.165953073943385</v>
+        <v>9.236016582842852</v>
       </c>
       <c r="G7">
-        <v>3.609379007778034</v>
+        <v>3.629350868742752</v>
       </c>
       <c r="H7">
-        <v>32.42831078809137</v>
+        <v>32.42898230708861</v>
       </c>
     </row>
     <row r="8">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C8">
-        <v>3.512410025416218</v>
+        <v>3.510322822902935</v>
       </c>
       <c r="D8">
-        <v>12.84238692927475</v>
+        <v>12.84694702643727</v>
       </c>
       <c r="E8">
-        <v>3.225850313468367</v>
+        <v>3.168009596498625</v>
       </c>
       <c r="F8">
-        <v>5.083256173374033</v>
+        <v>5.071380750934225</v>
       </c>
       <c r="G8">
-        <v>4.181963915464646</v>
+        <v>4.196158676738227</v>
       </c>
       <c r="H8">
-        <v>28.84586735699801</v>
+        <v>28.79281887351128</v>
       </c>
     </row>
     <row r="9">
@@ -605,22 +605,22 @@
         </is>
       </c>
       <c r="C9">
-        <v>4.704392402361273</v>
+        <v>4.703387344963951</v>
       </c>
       <c r="D9">
-        <v>13.28980612490604</v>
+        <v>13.3255840515091</v>
       </c>
       <c r="E9">
-        <v>2.000159723119942</v>
+        <v>1.987108590042685</v>
       </c>
       <c r="F9">
-        <v>6.978543961086959</v>
+        <v>6.903454256657646</v>
       </c>
       <c r="G9">
-        <v>5.259728320323254</v>
+        <v>5.25270401146703</v>
       </c>
       <c r="H9">
-        <v>32.23263053179747</v>
+        <v>32.17223825464041</v>
       </c>
     </row>
     <row r="10">
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="C10">
-        <v>7.337422161313886</v>
+        <v>7.33472612500473</v>
       </c>
       <c r="D10">
-        <v>11.66439789603192</v>
+        <v>11.70590648267642</v>
       </c>
       <c r="E10">
-        <v>1.722119163893992</v>
+        <v>1.709671881039287</v>
       </c>
       <c r="F10">
-        <v>10.74283897264594</v>
+        <v>10.67236643672631</v>
       </c>
       <c r="G10">
-        <v>5.058769508059869</v>
+        <v>5.045643801293241</v>
       </c>
       <c r="H10">
-        <v>36.5255477019456</v>
+        <v>36.46831472673999</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results_men.xlsx
+++ b/Results/results_men.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2.5%" sheetId="2" r:id="rId2"/>
+    <sheet name="97.5%" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +362,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>education</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>race</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>retired.healthy</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>retired.unhealthy</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>not.working</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>working.healthy</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>working.unhealthy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
@@ -401,254 +408,1796 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C2">
-        <v>3.366303623731205</v>
-      </c>
       <c r="D2">
-        <v>12.15714401385543</v>
+        <v>3.904439941756977</v>
       </c>
       <c r="E2">
-        <v>1.737188663037162</v>
+        <v>12.26654948744224</v>
       </c>
       <c r="F2">
-        <v>4.004564280816123</v>
+        <v>1.87422278962173</v>
       </c>
       <c r="G2">
-        <v>3.652049221412493</v>
+        <v>4.137377948188109</v>
       </c>
       <c r="H2">
-        <v>24.91724980285242</v>
+        <v>4.166967579395159</v>
+      </c>
+      <c r="I2">
+        <v>26.34955774640421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C3">
-        <v>4.686592407434943</v>
-      </c>
       <c r="D3">
-        <v>12.74007630712849</v>
+        <v>5.282472245330411</v>
       </c>
       <c r="E3">
-        <v>1.067978942660879</v>
+        <v>12.03036059941171</v>
       </c>
       <c r="F3">
-        <v>5.785149508426985</v>
+        <v>0.9783160536678729</v>
       </c>
       <c r="G3">
-        <v>4.629681100983577</v>
+        <v>5.407482797024506</v>
       </c>
       <c r="H3">
-        <v>28.90947826663487</v>
+        <v>4.962665279703942</v>
+      </c>
+      <c r="I3">
+        <v>28.66129697513845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C4">
-        <v>7.655722422417413</v>
-      </c>
       <c r="D4">
-        <v>11.33642055198433</v>
+        <v>7.752141919084989</v>
       </c>
       <c r="E4">
-        <v>0.8619887241378588</v>
+        <v>11.66136212753755</v>
       </c>
       <c r="F4">
-        <v>9.6321956492387</v>
+        <v>0.7543597005537398</v>
       </c>
       <c r="G4">
-        <v>4.461747400534877</v>
+        <v>8.263145924393408</v>
       </c>
       <c r="H4">
-        <v>33.94807474831318</v>
+        <v>4.236252484246125</v>
+      </c>
+      <c r="I4">
+        <v>32.66726215581581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C5">
-        <v>3.056804037521745</v>
-      </c>
       <c r="D5">
-        <v>11.28969770140409</v>
+        <v>3.90242357800833</v>
       </c>
       <c r="E5">
-        <v>2.634483856901404</v>
+        <v>10.4405824175149</v>
       </c>
       <c r="F5">
-        <v>3.383079511480429</v>
+        <v>2.906423535002142</v>
       </c>
       <c r="G5">
-        <v>2.530826876317968</v>
+        <v>4.565452737902664</v>
       </c>
       <c r="H5">
-        <v>22.89489198362563</v>
+        <v>2.525629007026098</v>
+      </c>
+      <c r="I5">
+        <v>24.34051127545414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C6">
-        <v>4.419344227387025</v>
-      </c>
       <c r="D6">
-        <v>12.08477614690689</v>
+        <v>5.421912341190843</v>
       </c>
       <c r="E6">
-        <v>1.72254167945185</v>
+        <v>10.53410914496424</v>
       </c>
       <c r="F6">
-        <v>5.157664722330637</v>
+        <v>1.786985949083931</v>
       </c>
       <c r="G6">
-        <v>3.462173094514133</v>
+        <v>5.530642879347573</v>
       </c>
       <c r="H6">
-        <v>26.84649987059054</v>
+        <v>3.08699906278645</v>
+      </c>
+      <c r="I6">
+        <v>26.36064937737304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="C7">
-        <v>7.446834057065592</v>
-      </c>
       <c r="D7">
-        <v>10.79877460733823</v>
+        <v>7.919136326772108</v>
       </c>
       <c r="E7">
-        <v>1.318006191099182</v>
+        <v>10.12364976780039</v>
       </c>
       <c r="F7">
-        <v>9.236016582842852</v>
+        <v>1.143307876627796</v>
       </c>
       <c r="G7">
-        <v>3.629350868742752</v>
+        <v>9.062663087437013</v>
       </c>
       <c r="H7">
-        <v>32.42898230708861</v>
+        <v>2.83692146114122</v>
+      </c>
+      <c r="I7">
+        <v>31.08567851977853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C8">
-        <v>3.510322822902935</v>
-      </c>
       <c r="D8">
-        <v>12.84694702643727</v>
+        <v>3.834458114002897</v>
       </c>
       <c r="E8">
-        <v>3.168009596498625</v>
+        <v>12.64011474040511</v>
       </c>
       <c r="F8">
-        <v>5.071380750934225</v>
+        <v>2.838985644112817</v>
       </c>
       <c r="G8">
-        <v>4.196158676738227</v>
+        <v>5.430533424785357</v>
       </c>
       <c r="H8">
-        <v>28.79281887351128</v>
+        <v>3.683962949309413</v>
+      </c>
+      <c r="I8">
+        <v>28.4280548726156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C9">
-        <v>4.703387344963951</v>
-      </c>
       <c r="D9">
-        <v>13.3255840515091</v>
+        <v>5.174839600101257</v>
       </c>
       <c r="E9">
-        <v>1.987108590042685</v>
+        <v>12.36302340144172</v>
       </c>
       <c r="F9">
-        <v>6.903454256657646</v>
+        <v>1.428578518223841</v>
       </c>
       <c r="G9">
-        <v>5.25270401146703</v>
+        <v>6.998925201952798</v>
       </c>
       <c r="H9">
-        <v>32.17223825464041</v>
+        <v>4.632731230855415</v>
+      </c>
+      <c r="I9">
+        <v>30.59809795257503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Hispanic</t>
         </is>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>7.32261053673684</v>
+      </c>
+      <c r="E10">
+        <v>11.78680117593682</v>
+      </c>
+      <c r="F10">
+        <v>1.297200430941462</v>
+      </c>
+      <c r="G10">
+        <v>10.11497000523823</v>
+      </c>
+      <c r="H10">
+        <v>3.849342993720903</v>
+      </c>
+      <c r="I10">
+        <v>34.37092514257426</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>3.366303623731205</v>
+      </c>
+      <c r="E11">
+        <v>12.15714401385543</v>
+      </c>
+      <c r="F11">
+        <v>1.737188663037162</v>
+      </c>
+      <c r="G11">
+        <v>4.004564280816123</v>
+      </c>
+      <c r="H11">
+        <v>3.652049221412493</v>
+      </c>
+      <c r="I11">
+        <v>24.91724980285242</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>4.686592407434943</v>
+      </c>
+      <c r="E12">
+        <v>12.74007630712849</v>
+      </c>
+      <c r="F12">
+        <v>1.067978942660879</v>
+      </c>
+      <c r="G12">
+        <v>5.785149508426985</v>
+      </c>
+      <c r="H12">
+        <v>4.629681100983577</v>
+      </c>
+      <c r="I12">
+        <v>28.90947826663487</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>7.655722422417413</v>
+      </c>
+      <c r="E13">
+        <v>11.33642055198433</v>
+      </c>
+      <c r="F13">
+        <v>0.8619887241378588</v>
+      </c>
+      <c r="G13">
+        <v>9.6321956492387</v>
+      </c>
+      <c r="H13">
+        <v>4.461747400534877</v>
+      </c>
+      <c r="I13">
+        <v>33.94807474831318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>3.056804037521745</v>
+      </c>
+      <c r="E14">
+        <v>11.28969770140409</v>
+      </c>
+      <c r="F14">
+        <v>2.634483856901404</v>
+      </c>
+      <c r="G14">
+        <v>3.383079511480429</v>
+      </c>
+      <c r="H14">
+        <v>2.530826876317968</v>
+      </c>
+      <c r="I14">
+        <v>22.89489198362563</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>4.419344227387025</v>
+      </c>
+      <c r="E15">
+        <v>12.08477614690689</v>
+      </c>
+      <c r="F15">
+        <v>1.72254167945185</v>
+      </c>
+      <c r="G15">
+        <v>5.157664722330637</v>
+      </c>
+      <c r="H15">
+        <v>3.462173094514133</v>
+      </c>
+      <c r="I15">
+        <v>26.84649987059054</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>7.446834057065592</v>
+      </c>
+      <c r="E16">
+        <v>10.79877460733823</v>
+      </c>
+      <c r="F16">
+        <v>1.318006191099182</v>
+      </c>
+      <c r="G16">
+        <v>9.236016582842852</v>
+      </c>
+      <c r="H16">
+        <v>3.629350868742752</v>
+      </c>
+      <c r="I16">
+        <v>32.42898230708861</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>3.510322822902935</v>
+      </c>
+      <c r="E17">
+        <v>12.84694702643727</v>
+      </c>
+      <c r="F17">
+        <v>3.168009596498625</v>
+      </c>
+      <c r="G17">
+        <v>5.071380750934225</v>
+      </c>
+      <c r="H17">
+        <v>4.196158676738227</v>
+      </c>
+      <c r="I17">
+        <v>28.79281887351128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>4.703387344963951</v>
+      </c>
+      <c r="E18">
+        <v>13.3255840515091</v>
+      </c>
+      <c r="F18">
+        <v>1.987108590042685</v>
+      </c>
+      <c r="G18">
+        <v>6.903454256657646</v>
+      </c>
+      <c r="H18">
+        <v>5.25270401146703</v>
+      </c>
+      <c r="I18">
+        <v>32.17223825464041</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D19">
         <v>7.33472612500473</v>
       </c>
+      <c r="E19">
+        <v>11.70590648267642</v>
+      </c>
+      <c r="F19">
+        <v>1.709671881039287</v>
+      </c>
+      <c r="G19">
+        <v>10.67236643672631</v>
+      </c>
+      <c r="H19">
+        <v>5.045643801293241</v>
+      </c>
+      <c r="I19">
+        <v>36.46831472673999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>retired.healthy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>retired.unhealthy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>not.working</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>working.healthy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>working.unhealthy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>3.621673486831623</v>
+      </c>
+      <c r="E2">
+        <v>11.64050281392282</v>
+      </c>
+      <c r="F2">
+        <v>1.632878664830797</v>
+      </c>
+      <c r="G2">
+        <v>3.810981403678492</v>
+      </c>
+      <c r="H2">
+        <v>3.804620107230797</v>
+      </c>
+      <c r="I2">
+        <v>25.53497920560531</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>5.00653264017557</v>
+      </c>
+      <c r="E3">
+        <v>11.58126334800173</v>
+      </c>
+      <c r="F3">
+        <v>0.8817963560780722</v>
+      </c>
+      <c r="G3">
+        <v>5.130544224359983</v>
+      </c>
+      <c r="H3">
+        <v>4.709607467822759</v>
+      </c>
+      <c r="I3">
+        <v>28.10876169895863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>7.196382434677743</v>
+      </c>
+      <c r="E4">
+        <v>10.99679775105737</v>
+      </c>
+      <c r="F4">
+        <v>0.633933354425258</v>
+      </c>
+      <c r="G4">
+        <v>7.789017455776307</v>
+      </c>
+      <c r="H4">
+        <v>3.908105438831302</v>
+      </c>
+      <c r="I4">
+        <v>31.90313591500101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>3.460682449941584</v>
+      </c>
+      <c r="E5">
+        <v>9.652367803148984</v>
+      </c>
+      <c r="F5">
+        <v>2.534624532327719</v>
+      </c>
+      <c r="G5">
+        <v>4.039980515967365</v>
+      </c>
+      <c r="H5">
+        <v>2.165215724535584</v>
+      </c>
+      <c r="I5">
+        <v>23.29930231834405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>4.77324754640979</v>
+      </c>
+      <c r="E6">
+        <v>9.780881883946035</v>
+      </c>
+      <c r="F6">
+        <v>1.52458162969484</v>
+      </c>
+      <c r="G6">
+        <v>4.967354785117887</v>
+      </c>
+      <c r="H6">
+        <v>2.716588164086312</v>
+      </c>
+      <c r="I6">
+        <v>25.34116157926703</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>7.006537133758249</v>
+      </c>
+      <c r="E7">
+        <v>9.20036377089377</v>
+      </c>
+      <c r="F7">
+        <v>0.8774214895780472</v>
+      </c>
+      <c r="G7">
+        <v>8.118961655433155</v>
+      </c>
+      <c r="H7">
+        <v>2.397619312677774</v>
+      </c>
+      <c r="I7">
+        <v>29.81483726925545</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>3.33027741208477</v>
+      </c>
+      <c r="E8">
+        <v>11.57781780039643</v>
+      </c>
+      <c r="F8">
+        <v>2.401425839482397</v>
+      </c>
+      <c r="G8">
+        <v>4.779320019218368</v>
+      </c>
+      <c r="H8">
+        <v>3.278885755326778</v>
+      </c>
+      <c r="I8">
+        <v>27.3678834155412</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>4.399430320231747</v>
+      </c>
+      <c r="E9">
+        <v>11.29356262709902</v>
+      </c>
+      <c r="F9">
+        <v>1.188388948154997</v>
+      </c>
+      <c r="G9">
+        <v>6.186413181168683</v>
+      </c>
+      <c r="H9">
+        <v>4.076298356878654</v>
+      </c>
+      <c r="I9">
+        <v>29.34085237684774</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
       <c r="D10">
-        <v>11.70590648267642</v>
+        <v>6.327099244064804</v>
       </c>
       <c r="E10">
-        <v>1.709671881039287</v>
+        <v>10.6506450720942</v>
       </c>
       <c r="F10">
-        <v>10.67236643672631</v>
+        <v>0.9179690152437183</v>
       </c>
       <c r="G10">
-        <v>5.045643801293241</v>
+        <v>8.666585393347273</v>
       </c>
       <c r="H10">
-        <v>36.46831472673999</v>
+        <v>3.171198332565996</v>
+      </c>
+      <c r="I10">
+        <v>33.08204966348067</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>2.982533911853617</v>
+      </c>
+      <c r="E11">
+        <v>11.43060328950386</v>
+      </c>
+      <c r="F11">
+        <v>1.507884307349629</v>
+      </c>
+      <c r="G11">
+        <v>3.523668555434116</v>
+      </c>
+      <c r="H11">
+        <v>3.27552841091159</v>
+      </c>
+      <c r="I11">
+        <v>24.0004377478499</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>4.367020297270978</v>
+      </c>
+      <c r="E12">
+        <v>12.2450123851981</v>
+      </c>
+      <c r="F12">
+        <v>0.9509591341518101</v>
+      </c>
+      <c r="G12">
+        <v>5.459370744458218</v>
+      </c>
+      <c r="H12">
+        <v>4.349540939697084</v>
+      </c>
+      <c r="I12">
+        <v>28.24695231565955</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>7.108934049739867</v>
+      </c>
+      <c r="E13">
+        <v>10.72552888691363</v>
+      </c>
+      <c r="F13">
+        <v>0.7304152538434123</v>
+      </c>
+      <c r="G13">
+        <v>9.153418605152192</v>
+      </c>
+      <c r="H13">
+        <v>4.120153448305939</v>
+      </c>
+      <c r="I13">
+        <v>33.18204624239705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>2.680676592430095</v>
+      </c>
+      <c r="E14">
+        <v>10.37830074866653</v>
+      </c>
+      <c r="F14">
+        <v>2.264011703689122</v>
+      </c>
+      <c r="G14">
+        <v>2.955904089529759</v>
+      </c>
+      <c r="H14">
+        <v>2.204888370346542</v>
+      </c>
+      <c r="I14">
+        <v>21.72335966966821</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>3.887244701796076</v>
+      </c>
+      <c r="E15">
+        <v>11.1678638603009</v>
+      </c>
+      <c r="F15">
+        <v>1.478864184270605</v>
+      </c>
+      <c r="G15">
+        <v>4.707968706522495</v>
+      </c>
+      <c r="H15">
+        <v>3.082574543565896</v>
+      </c>
+      <c r="I15">
+        <v>25.76903208936444</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>6.590979993295177</v>
+      </c>
+      <c r="E16">
+        <v>9.861411499275597</v>
+      </c>
+      <c r="F16">
+        <v>1.063176725844848</v>
+      </c>
+      <c r="G16">
+        <v>8.533649766620872</v>
+      </c>
+      <c r="H16">
+        <v>3.155652354912724</v>
+      </c>
+      <c r="I16">
+        <v>31.30727254268531</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>3.075985297624905</v>
+      </c>
+      <c r="E17">
+        <v>11.95813148424037</v>
+      </c>
+      <c r="F17">
+        <v>2.739613465971768</v>
+      </c>
+      <c r="G17">
+        <v>4.586509543284576</v>
+      </c>
+      <c r="H17">
+        <v>3.776569254198731</v>
+      </c>
+      <c r="I17">
+        <v>27.83334350895432</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>4.180324670746351</v>
+      </c>
+      <c r="E18">
+        <v>12.31697959871009</v>
+      </c>
+      <c r="F18">
+        <v>1.71231557300916</v>
+      </c>
+      <c r="G18">
+        <v>6.301888517003109</v>
+      </c>
+      <c r="H18">
+        <v>4.708746118569282</v>
+      </c>
+      <c r="I18">
+        <v>31.07287831311399</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>6.560502548223248</v>
+      </c>
+      <c r="E19">
+        <v>10.61028329212179</v>
+      </c>
+      <c r="F19">
+        <v>1.373799615400632</v>
+      </c>
+      <c r="G19">
+        <v>9.724924936146996</v>
+      </c>
+      <c r="H19">
+        <v>4.336448733571595</v>
+      </c>
+      <c r="I19">
+        <v>35.38059301543051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>retired.healthy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>retired.unhealthy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>not.working</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>working.healthy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>working.unhealthy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>4.197954619911603</v>
+      </c>
+      <c r="E2">
+        <v>12.91603197839357</v>
+      </c>
+      <c r="F2">
+        <v>2.128118768379951</v>
+      </c>
+      <c r="G2">
+        <v>4.521984333043158</v>
+      </c>
+      <c r="H2">
+        <v>4.483816088999347</v>
+      </c>
+      <c r="I2">
+        <v>27.08176502118015</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>5.552275334235405</v>
+      </c>
+      <c r="E3">
+        <v>12.57182363543101</v>
+      </c>
+      <c r="F3">
+        <v>1.106919183687511</v>
+      </c>
+      <c r="G3">
+        <v>5.659483547756013</v>
+      </c>
+      <c r="H3">
+        <v>5.230836742582949</v>
+      </c>
+      <c r="I3">
+        <v>29.23359183381882</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>8.349802723764062</v>
+      </c>
+      <c r="E4">
+        <v>12.33562133867095</v>
+      </c>
+      <c r="F4">
+        <v>0.8806330063962344</v>
+      </c>
+      <c r="G4">
+        <v>8.672447815337836</v>
+      </c>
+      <c r="H4">
+        <v>4.570724251458331</v>
+      </c>
+      <c r="I4">
+        <v>33.40906661789739</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>4.32010229713605</v>
+      </c>
+      <c r="E5">
+        <v>11.32456883974523</v>
+      </c>
+      <c r="F5">
+        <v>3.328952777096485</v>
+      </c>
+      <c r="G5">
+        <v>5.130291578835445</v>
+      </c>
+      <c r="H5">
+        <v>2.86674256659149</v>
+      </c>
+      <c r="I5">
+        <v>25.36213129214302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>5.979313855502381</v>
+      </c>
+      <c r="E6">
+        <v>11.38921166429401</v>
+      </c>
+      <c r="F6">
+        <v>2.092377658173603</v>
+      </c>
+      <c r="G6">
+        <v>6.203562841176263</v>
+      </c>
+      <c r="H6">
+        <v>3.508906129455279</v>
+      </c>
+      <c r="I6">
+        <v>27.57881447281109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>8.798567854414653</v>
+      </c>
+      <c r="E7">
+        <v>11.15706922430158</v>
+      </c>
+      <c r="F7">
+        <v>1.457562906317226</v>
+      </c>
+      <c r="G7">
+        <v>9.995211860632292</v>
+      </c>
+      <c r="H7">
+        <v>3.328293896445257</v>
+      </c>
+      <c r="I7">
+        <v>32.21607712683249</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>4.360368092134082</v>
+      </c>
+      <c r="E8">
+        <v>13.63128669115332</v>
+      </c>
+      <c r="F8">
+        <v>3.29033577264115</v>
+      </c>
+      <c r="G8">
+        <v>6.201195474741009</v>
+      </c>
+      <c r="H8">
+        <v>4.134057950223093</v>
+      </c>
+      <c r="I8">
+        <v>29.73405354460072</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>5.836401746752582</v>
+      </c>
+      <c r="E9">
+        <v>13.66894752868324</v>
+      </c>
+      <c r="F9">
+        <v>1.698710141896055</v>
+      </c>
+      <c r="G9">
+        <v>7.940136604754508</v>
+      </c>
+      <c r="H9">
+        <v>5.272868459086143</v>
+      </c>
+      <c r="I9">
+        <v>31.99367922545131</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>8.36404280729243</v>
+      </c>
+      <c r="E10">
+        <v>12.960108887766</v>
+      </c>
+      <c r="F10">
+        <v>1.752960612986624</v>
+      </c>
+      <c r="G10">
+        <v>11.26606329580022</v>
+      </c>
+      <c r="H10">
+        <v>4.483712164622366</v>
+      </c>
+      <c r="I10">
+        <v>35.77569418918486</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>3.810839514845163</v>
+      </c>
+      <c r="E11">
+        <v>12.93066505043811</v>
+      </c>
+      <c r="F11">
+        <v>1.987801927875739</v>
+      </c>
+      <c r="G11">
+        <v>4.5456954421637</v>
+      </c>
+      <c r="H11">
+        <v>4.199701133310081</v>
+      </c>
+      <c r="I11">
+        <v>25.89239120166533</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>5.025672885858662</v>
+      </c>
+      <c r="E12">
+        <v>13.27944510058067</v>
+      </c>
+      <c r="F12">
+        <v>1.1923271789581</v>
+      </c>
+      <c r="G12">
+        <v>6.104014317189105</v>
+      </c>
+      <c r="H12">
+        <v>4.893386520639977</v>
+      </c>
+      <c r="I12">
+        <v>29.62649132365864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>8.112867523128156</v>
+      </c>
+      <c r="E13">
+        <v>11.92401261932587</v>
+      </c>
+      <c r="F13">
+        <v>1.003432460004418</v>
+      </c>
+      <c r="G13">
+        <v>10.24061741923984</v>
+      </c>
+      <c r="H13">
+        <v>4.815865292907919</v>
+      </c>
+      <c r="I13">
+        <v>34.59639683951585</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>3.420061708375012</v>
+      </c>
+      <c r="E14">
+        <v>12.22397097927271</v>
+      </c>
+      <c r="F14">
+        <v>2.98342615195095</v>
+      </c>
+      <c r="G14">
+        <v>3.895314888971908</v>
+      </c>
+      <c r="H14">
+        <v>2.991826999407154</v>
+      </c>
+      <c r="I14">
+        <v>23.9426013693996</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>4.880181088524324</v>
+      </c>
+      <c r="E15">
+        <v>12.8875402256834</v>
+      </c>
+      <c r="F15">
+        <v>1.934781754969059</v>
+      </c>
+      <c r="G15">
+        <v>5.593489091656313</v>
+      </c>
+      <c r="H15">
+        <v>3.831374168242989</v>
+      </c>
+      <c r="I15">
+        <v>27.88187127104929</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>8.230821042453787</v>
+      </c>
+      <c r="E16">
+        <v>11.68295064487212</v>
+      </c>
+      <c r="F16">
+        <v>1.544937322154876</v>
+      </c>
+      <c r="G16">
+        <v>10.07262411906979</v>
+      </c>
+      <c r="H16">
+        <v>4.089603389344624</v>
+      </c>
+      <c r="I16">
+        <v>33.43876238423223</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>3.94899258643628</v>
+      </c>
+      <c r="E17">
+        <v>13.96675275415976</v>
+      </c>
+      <c r="F17">
+        <v>3.514742996274003</v>
+      </c>
+      <c r="G17">
+        <v>5.68850229460286</v>
+      </c>
+      <c r="H17">
+        <v>4.622755699157404</v>
+      </c>
+      <c r="I17">
+        <v>30.10158836618591</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>5.32054471044072</v>
+      </c>
+      <c r="E18">
+        <v>14.43919134171797</v>
+      </c>
+      <c r="F18">
+        <v>2.2786570273724</v>
+      </c>
+      <c r="G18">
+        <v>7.55164442706731</v>
+      </c>
+      <c r="H18">
+        <v>5.831839274199254</v>
+      </c>
+      <c r="I18">
+        <v>33.38375767090039</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>8.44631213807056</v>
+      </c>
+      <c r="E19">
+        <v>12.76609936117235</v>
+      </c>
+      <c r="F19">
+        <v>2.054992491356983</v>
+      </c>
+      <c r="G19">
+        <v>11.58183231349909</v>
+      </c>
+      <c r="H19">
+        <v>5.724543234939704</v>
+      </c>
+      <c r="I19">
+        <v>37.66605398560591</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results_men.xlsx
+++ b/Results/results_men.xlsx
@@ -417,22 +417,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.940395361912543</v>
+        <v>3.952246636083141</v>
       </c>
       <c r="E2">
-        <v>12.31428897239625</v>
+        <v>12.35755224076767</v>
       </c>
       <c r="F2">
-        <v>1.870149513768485</v>
+        <v>1.871220423348485</v>
       </c>
       <c r="G2">
-        <v>4.156387053551604</v>
+        <v>4.157398569749255</v>
       </c>
       <c r="H2">
-        <v>4.140850186501452</v>
+        <v>4.142436975538923</v>
       </c>
       <c r="I2">
-        <v>26.42207108813033</v>
+        <v>26.48085484548747</v>
       </c>
     </row>
     <row r="3">
@@ -446,22 +446,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.276123303928343</v>
+        <v>5.287259919925408</v>
       </c>
       <c r="E3">
-        <v>12.0147552287229</v>
+        <v>12.04991483644111</v>
       </c>
       <c r="F3">
-        <v>0.9880141040303648</v>
+        <v>0.9887338115204418</v>
       </c>
       <c r="G3">
-        <v>5.400349522271534</v>
+        <v>5.402079727455557</v>
       </c>
       <c r="H3">
-        <v>4.964875155205005</v>
+        <v>4.967654332951824</v>
       </c>
       <c r="I3">
-        <v>28.64411731415814</v>
+        <v>28.69564262829434</v>
       </c>
     </row>
     <row r="4">
@@ -475,22 +475,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.751713457633973</v>
+        <v>7.75773721273724</v>
       </c>
       <c r="E4">
-        <v>11.69184403969386</v>
+        <v>11.70273626723449</v>
       </c>
       <c r="F4">
-        <v>0.7647579174828</v>
+        <v>0.7649674688813104</v>
       </c>
       <c r="G4">
-        <v>8.254958287169657</v>
+        <v>8.255559009266994</v>
       </c>
       <c r="H4">
-        <v>4.213757204142808</v>
+        <v>4.21414799771723</v>
       </c>
       <c r="I4">
-        <v>32.6770309061231</v>
+        <v>32.69514795583726</v>
       </c>
     </row>
     <row r="5">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.929092596375013</v>
+        <v>3.939984979964184</v>
       </c>
       <c r="E5">
-        <v>10.47513598514327</v>
+        <v>10.51315912232359</v>
       </c>
       <c r="F5">
-        <v>2.906191520657207</v>
+        <v>2.907709241632334</v>
       </c>
       <c r="G5">
-        <v>4.577463465520403</v>
+        <v>4.578308444209157</v>
       </c>
       <c r="H5">
-        <v>2.510757043185485</v>
+        <v>2.511501432486196</v>
       </c>
       <c r="I5">
-        <v>24.39864061088138</v>
+        <v>24.45066322061546</v>
       </c>
     </row>
     <row r="6">
@@ -533,22 +533,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5.401711959556852</v>
+        <v>5.412374685147042</v>
       </c>
       <c r="E6">
-        <v>10.51193207688043</v>
+        <v>10.54468290956195</v>
       </c>
       <c r="F6">
-        <v>1.809489794521157</v>
+        <v>1.810762298536042</v>
       </c>
       <c r="G6">
-        <v>5.512500522470456</v>
+        <v>5.514329885288934</v>
       </c>
       <c r="H6">
-        <v>3.087755101965443</v>
+        <v>3.089362096789232</v>
       </c>
       <c r="I6">
-        <v>26.32338945539433</v>
+        <v>26.3715118753232</v>
       </c>
     </row>
     <row r="7">
@@ -562,22 +562,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>7.898858012028763</v>
+        <v>7.902744692869343</v>
       </c>
       <c r="E7">
-        <v>10.14250945074847</v>
+        <v>10.15231297723901</v>
       </c>
       <c r="F7">
-        <v>1.161885941460898</v>
+        <v>1.162192396495848</v>
       </c>
       <c r="G7">
-        <v>9.039627780968166</v>
+        <v>9.040002140121249</v>
       </c>
       <c r="H7">
-        <v>2.82548147178774</v>
+        <v>2.825431309640158</v>
       </c>
       <c r="I7">
-        <v>31.06836265699404</v>
+        <v>31.08268351636561</v>
       </c>
     </row>
     <row r="8">
@@ -591,22 +591,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3.852595988826856</v>
+        <v>3.876529086039456</v>
       </c>
       <c r="E8">
-        <v>12.66327529327348</v>
+        <v>12.7850132811935</v>
       </c>
       <c r="F8">
-        <v>2.841029655828608</v>
+        <v>2.843418150355897</v>
       </c>
       <c r="G8">
-        <v>5.440525019874487</v>
+        <v>5.448166540877354</v>
       </c>
       <c r="H8">
-        <v>3.668304878865363</v>
+        <v>3.678924357863245</v>
       </c>
       <c r="I8">
-        <v>28.4657308366688</v>
+        <v>28.63205141632945</v>
       </c>
     </row>
     <row r="9">
@@ -620,22 +620,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>5.14893615454393</v>
+        <v>5.173410574127462</v>
       </c>
       <c r="E9">
-        <v>12.32833008594249</v>
+        <v>12.43475270053501</v>
       </c>
       <c r="F9">
-        <v>1.447802153704773</v>
+        <v>1.448923553667727</v>
       </c>
       <c r="G9">
-        <v>6.973165318920511</v>
+        <v>6.982321993561088</v>
       </c>
       <c r="H9">
-        <v>4.647781225201265</v>
+        <v>4.660988513449119</v>
       </c>
       <c r="I9">
-        <v>30.54601493831296</v>
+        <v>30.70039733534041</v>
       </c>
     </row>
     <row r="10">
@@ -649,22 +649,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>7.298815981605643</v>
+        <v>7.319177169010198</v>
       </c>
       <c r="E10">
-        <v>11.80572575366267</v>
+        <v>11.87651763955107</v>
       </c>
       <c r="F10">
-        <v>1.322109323047873</v>
+        <v>1.322188794078943</v>
       </c>
       <c r="G10">
-        <v>10.08091261280628</v>
+        <v>10.09190864544029</v>
       </c>
       <c r="H10">
-        <v>3.839773403472805</v>
+        <v>3.849145089864298</v>
       </c>
       <c r="I10">
-        <v>34.34733707459527</v>
+        <v>34.45893733794479</v>
       </c>
     </row>
     <row r="11">
@@ -678,22 +678,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.412097338426427</v>
+        <v>3.416010830706889</v>
       </c>
       <c r="E11">
-        <v>12.07437244991147</v>
+        <v>12.09244607321355</v>
       </c>
       <c r="F11">
-        <v>1.733916314347745</v>
+        <v>1.734013584338234</v>
       </c>
       <c r="G11">
-        <v>4.058524857869489</v>
+        <v>4.058669289566895</v>
       </c>
       <c r="H11">
-        <v>3.639290330885025</v>
+        <v>3.639866005190194</v>
       </c>
       <c r="I11">
-        <v>24.91820129144016</v>
+        <v>24.94100578301576</v>
       </c>
     </row>
     <row r="12">
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.71215911635067</v>
+        <v>4.714058826476602</v>
       </c>
       <c r="E12">
-        <v>12.71618620522623</v>
+        <v>12.72327170876167</v>
       </c>
       <c r="F12">
-        <v>1.061687506278932</v>
+        <v>1.06179599377986</v>
       </c>
       <c r="G12">
-        <v>5.802973247108874</v>
+        <v>5.803174269845473</v>
       </c>
       <c r="H12">
-        <v>4.61964057022566</v>
+        <v>4.620164824836842</v>
       </c>
       <c r="I12">
-        <v>28.91264664519037</v>
+        <v>28.92246562370045</v>
       </c>
     </row>
     <row r="13">
@@ -736,22 +736,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.575960198140112</v>
+        <v>7.578780891997771</v>
       </c>
       <c r="E13">
-        <v>11.45818924624998</v>
+        <v>11.45838086852632</v>
       </c>
       <c r="F13">
-        <v>0.8793276021993686</v>
+        <v>0.8803506579219698</v>
       </c>
       <c r="G13">
-        <v>9.602549599397655</v>
+        <v>9.601718249736761</v>
       </c>
       <c r="H13">
-        <v>4.471523399490803</v>
+        <v>4.473073913084068</v>
       </c>
       <c r="I13">
-        <v>33.98755004547792</v>
+        <v>33.99230458126689</v>
       </c>
     </row>
     <row r="14">
@@ -765,22 +765,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3.080677799534889</v>
+        <v>3.094928514877436</v>
       </c>
       <c r="E14">
-        <v>11.23790184849283</v>
+        <v>11.29274707853712</v>
       </c>
       <c r="F14">
-        <v>2.638698069767472</v>
+        <v>2.644537578317664</v>
       </c>
       <c r="G14">
-        <v>3.418730583857799</v>
+        <v>3.421927736063244</v>
       </c>
       <c r="H14">
-        <v>2.525741899578891</v>
+        <v>2.528910156640266</v>
       </c>
       <c r="I14">
-        <v>22.90175020123188</v>
+        <v>22.98305106443573</v>
       </c>
     </row>
     <row r="15">
@@ -794,22 +794,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>4.421042017984943</v>
+        <v>4.435540290196841</v>
       </c>
       <c r="E15">
-        <v>12.09142852277667</v>
+        <v>12.1290472669959</v>
       </c>
       <c r="F15">
-        <v>1.718953230195835</v>
+        <v>1.722570942599959</v>
       </c>
       <c r="G15">
-        <v>5.159949869666421</v>
+        <v>5.170571016508696</v>
       </c>
       <c r="H15">
-        <v>3.461510001824224</v>
+        <v>3.468414799975009</v>
       </c>
       <c r="I15">
-        <v>26.8528836424481</v>
+        <v>26.9261443162764</v>
       </c>
     </row>
     <row r="16">
@@ -823,22 +823,22 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>7.339793017718194</v>
+        <v>7.355914206337073</v>
       </c>
       <c r="E16">
-        <v>10.94511515593823</v>
+        <v>10.97067218114426</v>
       </c>
       <c r="F16">
-        <v>1.352831815760972</v>
+        <v>1.356597878502412</v>
       </c>
       <c r="G16">
-        <v>9.176835828465441</v>
+        <v>9.180064157474508</v>
       </c>
       <c r="H16">
-        <v>3.643801452105806</v>
+        <v>3.647123804847294</v>
       </c>
       <c r="I16">
-        <v>32.45837726998865</v>
+        <v>32.51037222830555</v>
       </c>
     </row>
     <row r="17">
@@ -852,22 +852,22 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>3.530143990277808</v>
+        <v>3.531751571679968</v>
       </c>
       <c r="E17">
-        <v>12.79225794582258</v>
+        <v>12.80111290290063</v>
       </c>
       <c r="F17">
-        <v>3.171322532734759</v>
+        <v>3.171704923602246</v>
       </c>
       <c r="G17">
-        <v>5.102991320125376</v>
+        <v>5.103433718359065</v>
       </c>
       <c r="H17">
-        <v>4.188576357992114</v>
+        <v>4.188895468493284</v>
       </c>
       <c r="I17">
-        <v>28.78529214695264</v>
+        <v>28.79689858503519</v>
       </c>
     </row>
     <row r="18">
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>4.695405299126334</v>
+        <v>4.695295208836762</v>
       </c>
       <c r="E18">
-        <v>13.35042190597171</v>
+        <v>13.35074675205826</v>
       </c>
       <c r="F18">
-        <v>1.984450401576659</v>
+        <v>1.98501745101676</v>
       </c>
       <c r="G18">
-        <v>6.883917112928415</v>
+        <v>6.884790940523018</v>
       </c>
       <c r="H18">
-        <v>5.258012212867811</v>
+        <v>5.258472699607752</v>
       </c>
       <c r="I18">
-        <v>32.17220693247093</v>
+        <v>32.17432305204255</v>
       </c>
     </row>
     <row r="19">
@@ -910,22 +910,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>7.210919997811518</v>
+        <v>7.21151516085287</v>
       </c>
       <c r="E19">
-        <v>11.88984295713826</v>
+        <v>11.88571051740518</v>
       </c>
       <c r="F19">
-        <v>1.756050567626986</v>
+        <v>1.758548776373988</v>
       </c>
       <c r="G19">
-        <v>10.57320252080427</v>
+        <v>10.57318086539167</v>
       </c>
       <c r="H19">
-        <v>5.075468497272727</v>
+        <v>5.077158824128372</v>
       </c>
       <c r="I19">
-        <v>36.50548454065376</v>
+        <v>36.50611414415208</v>
       </c>
     </row>
   </sheetData>
@@ -999,22 +999,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.636865402646956</v>
+        <v>3.66745204865714</v>
       </c>
       <c r="E2">
-        <v>11.73680341895484</v>
+        <v>11.73926886421829</v>
       </c>
       <c r="F2">
-        <v>1.595123467004907</v>
+        <v>1.626869244096518</v>
       </c>
       <c r="G2">
-        <v>3.762250093746293</v>
+        <v>3.789998297687041</v>
       </c>
       <c r="H2">
-        <v>3.738711198459439</v>
+        <v>3.787342573055391</v>
       </c>
       <c r="I2">
-        <v>25.60223690220093</v>
+        <v>25.75045204363441</v>
       </c>
     </row>
     <row r="3">
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.983281516846648</v>
+        <v>4.971980289679007</v>
       </c>
       <c r="E3">
-        <v>11.58428137722985</v>
+        <v>11.63254920957659</v>
       </c>
       <c r="F3">
-        <v>0.8759666170473203</v>
+        <v>0.8837264294567285</v>
       </c>
       <c r="G3">
-        <v>5.09284492737714</v>
+        <v>5.130199287774342</v>
       </c>
       <c r="H3">
-        <v>4.681632872287604</v>
+        <v>4.694690161741685</v>
       </c>
       <c r="I3">
-        <v>28.07101962709735</v>
+        <v>28.17136400213953</v>
       </c>
     </row>
     <row r="4">
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.251084378255513</v>
+        <v>7.22831541861846</v>
       </c>
       <c r="E4">
-        <v>11.0593443489569</v>
+        <v>11.02475862213993</v>
       </c>
       <c r="F4">
-        <v>0.6382321875777641</v>
+        <v>0.6528698269725406</v>
       </c>
       <c r="G4">
-        <v>7.820220979414808</v>
+        <v>7.841091396171173</v>
       </c>
       <c r="H4">
-        <v>3.87716296730584</v>
+        <v>3.828464751908612</v>
       </c>
       <c r="I4">
-        <v>31.87374836460792</v>
+        <v>31.86072075620221</v>
       </c>
     </row>
     <row r="5">
@@ -1086,22 +1086,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.459277914636943</v>
+        <v>3.476334613550415</v>
       </c>
       <c r="E5">
-        <v>9.681781147162527</v>
+        <v>9.679183529997538</v>
       </c>
       <c r="F5">
-        <v>2.519991651589017</v>
+        <v>2.475601569048661</v>
       </c>
       <c r="G5">
-        <v>4.008431105923387</v>
+        <v>4.066671457250397</v>
       </c>
       <c r="H5">
-        <v>2.177899191273663</v>
+        <v>2.195700983618082</v>
       </c>
       <c r="I5">
-        <v>23.3938282460786</v>
+        <v>23.44253718647839</v>
       </c>
     </row>
     <row r="6">
@@ -1115,22 +1115,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4.805248565692422</v>
+        <v>4.87127117003906</v>
       </c>
       <c r="E6">
-        <v>9.693026167179173</v>
+        <v>9.7235812346991</v>
       </c>
       <c r="F6">
-        <v>1.539536546722061</v>
+        <v>1.520698503970176</v>
       </c>
       <c r="G6">
-        <v>4.928676239360465</v>
+        <v>4.91123976671344</v>
       </c>
       <c r="H6">
-        <v>2.716778023240094</v>
+        <v>2.673594713723102</v>
       </c>
       <c r="I6">
-        <v>25.18116935597836</v>
+        <v>25.21401702598255</v>
       </c>
     </row>
     <row r="7">
@@ -1144,22 +1144,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6.990494853312784</v>
+        <v>6.932692717291198</v>
       </c>
       <c r="E7">
-        <v>9.199927098462798</v>
+        <v>9.189855420377404</v>
       </c>
       <c r="F7">
-        <v>0.9034958912733204</v>
+        <v>0.8943438796764002</v>
       </c>
       <c r="G7">
-        <v>8.083107570369842</v>
+        <v>8.203528596824034</v>
       </c>
       <c r="H7">
-        <v>2.452221110901682</v>
+        <v>2.374527578827196</v>
       </c>
       <c r="I7">
-        <v>29.74078372572207</v>
+        <v>29.84981289636178</v>
       </c>
     </row>
     <row r="8">
@@ -1173,22 +1173,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3.372908438035778</v>
+        <v>3.38038556675765</v>
       </c>
       <c r="E8">
-        <v>11.5712117660911</v>
+        <v>11.59854234311151</v>
       </c>
       <c r="F8">
-        <v>2.372478518652393</v>
+        <v>2.401593502741179</v>
       </c>
       <c r="G8">
-        <v>4.798422772940443</v>
+        <v>4.784766403728137</v>
       </c>
       <c r="H8">
-        <v>3.194569158851025</v>
+        <v>3.239038346790371</v>
       </c>
       <c r="I8">
-        <v>27.01586458007765</v>
+        <v>27.29103171085271</v>
       </c>
     </row>
     <row r="9">
@@ -1202,22 +1202,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>4.415789313863607</v>
+        <v>4.546816025014757</v>
       </c>
       <c r="E9">
-        <v>11.20449594251755</v>
+        <v>11.4024520296277</v>
       </c>
       <c r="F9">
-        <v>1.137915856493653</v>
+        <v>1.169017399156536</v>
       </c>
       <c r="G9">
-        <v>6.210285253275447</v>
+        <v>6.218632127257083</v>
       </c>
       <c r="H9">
-        <v>4.054515313016956</v>
+        <v>4.052865248663246</v>
       </c>
       <c r="I9">
-        <v>29.0456528328451</v>
+        <v>29.34931125372105</v>
       </c>
     </row>
     <row r="10">
@@ -1231,22 +1231,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>6.373857631108207</v>
+        <v>6.387742508893083</v>
       </c>
       <c r="E10">
-        <v>10.72474429811552</v>
+        <v>10.65501698811493</v>
       </c>
       <c r="F10">
-        <v>0.9393128118310416</v>
+        <v>0.9113127395437473</v>
       </c>
       <c r="G10">
-        <v>8.944251202502196</v>
+        <v>8.945208009180632</v>
       </c>
       <c r="H10">
-        <v>3.220642642942559</v>
+        <v>3.241870002506357</v>
       </c>
       <c r="I10">
-        <v>32.95828445723321</v>
+        <v>32.9880003555944</v>
       </c>
     </row>
     <row r="11">
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.053401478404143</v>
+        <v>3.021142586906761</v>
       </c>
       <c r="E11">
-        <v>11.33456137160568</v>
+        <v>11.3510134405498</v>
       </c>
       <c r="F11">
-        <v>1.490853387232028</v>
+        <v>1.498752093313808</v>
       </c>
       <c r="G11">
-        <v>3.581789173695197</v>
+        <v>3.556580008308631</v>
       </c>
       <c r="H11">
-        <v>3.18799490693598</v>
+        <v>3.199254981471793</v>
       </c>
       <c r="I11">
-        <v>24.06240060158008</v>
+        <v>23.95011222938676</v>
       </c>
     </row>
     <row r="12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.417965066667687</v>
+        <v>4.405639290901929</v>
       </c>
       <c r="E12">
-        <v>12.18061331128726</v>
+        <v>12.26825582559372</v>
       </c>
       <c r="F12">
-        <v>0.9470847680356355</v>
+        <v>0.9511957711899071</v>
       </c>
       <c r="G12">
-        <v>5.398814935357224</v>
+        <v>5.436740920958139</v>
       </c>
       <c r="H12">
-        <v>4.309008881446215</v>
+        <v>4.317329542580092</v>
       </c>
       <c r="I12">
-        <v>28.3260802514426</v>
+        <v>28.3066998782135</v>
       </c>
     </row>
     <row r="13">
@@ -1318,22 +1318,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.111103327702132</v>
+        <v>7.045863045653673</v>
       </c>
       <c r="E13">
-        <v>10.86962422887493</v>
+        <v>10.84159783930652</v>
       </c>
       <c r="F13">
-        <v>0.7490977184742823</v>
+        <v>0.7487466457646222</v>
       </c>
       <c r="G13">
-        <v>9.09982424525333</v>
+        <v>9.097271588530853</v>
       </c>
       <c r="H13">
-        <v>4.100620578868985</v>
+        <v>4.100584229413535</v>
       </c>
       <c r="I13">
-        <v>33.30621966357953</v>
+        <v>33.31228512248438</v>
       </c>
     </row>
     <row r="14">
@@ -1347,22 +1347,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2.676977889843141</v>
+        <v>2.67768526194785</v>
       </c>
       <c r="E14">
-        <v>10.29761117239548</v>
+        <v>10.44522712766832</v>
       </c>
       <c r="F14">
-        <v>2.291910631153867</v>
+        <v>2.3279986180461</v>
       </c>
       <c r="G14">
-        <v>2.917641074089445</v>
+        <v>2.925137730181897</v>
       </c>
       <c r="H14">
-        <v>2.1889615908138</v>
+        <v>2.178711860251109</v>
       </c>
       <c r="I14">
-        <v>21.82779170300695</v>
+        <v>21.88297324071078</v>
       </c>
     </row>
     <row r="15">
@@ -1376,22 +1376,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3.944473679035224</v>
+        <v>3.949845778420216</v>
       </c>
       <c r="E15">
-        <v>11.27646750695331</v>
+        <v>11.35821055538964</v>
       </c>
       <c r="F15">
-        <v>1.479482234647476</v>
+        <v>1.505311952744966</v>
       </c>
       <c r="G15">
-        <v>4.70601786190462</v>
+        <v>4.711467540199931</v>
       </c>
       <c r="H15">
-        <v>3.106714946925564</v>
+        <v>3.098033880432846</v>
       </c>
       <c r="I15">
-        <v>25.84485046980853</v>
+        <v>25.88061277714728</v>
       </c>
     </row>
     <row r="16">
@@ -1405,22 +1405,22 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>6.532399914543847</v>
+        <v>6.543440493023114</v>
       </c>
       <c r="E16">
-        <v>9.982920813033164</v>
+        <v>10.08322964094203</v>
       </c>
       <c r="F16">
-        <v>1.099938836756361</v>
+        <v>1.106256174797586</v>
       </c>
       <c r="G16">
-        <v>8.428857777708416</v>
+        <v>8.378387998645469</v>
       </c>
       <c r="H16">
-        <v>3.175990013403901</v>
+        <v>3.210698490725259</v>
       </c>
       <c r="I16">
-        <v>31.21061427400337</v>
+        <v>31.34928667795194</v>
       </c>
     </row>
     <row r="17">
@@ -1434,22 +1434,22 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>3.118895640402951</v>
+        <v>3.047567306154241</v>
       </c>
       <c r="E17">
-        <v>11.81386210139018</v>
+        <v>11.78316188025714</v>
       </c>
       <c r="F17">
-        <v>2.763109646352402</v>
+        <v>2.81924682393467</v>
       </c>
       <c r="G17">
-        <v>4.558196201893044</v>
+        <v>4.523551488697267</v>
       </c>
       <c r="H17">
-        <v>3.719499090102321</v>
+        <v>3.707896220988744</v>
       </c>
       <c r="I17">
-        <v>27.70880586589835</v>
+        <v>27.50817682667574</v>
       </c>
     </row>
     <row r="18">
@@ -1463,22 +1463,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>4.03609936454381</v>
+        <v>4.07818155590178</v>
       </c>
       <c r="E18">
-        <v>12.34972170585571</v>
+        <v>12.26303741774063</v>
       </c>
       <c r="F18">
-        <v>1.70536357103005</v>
+        <v>1.705430785700635</v>
       </c>
       <c r="G18">
-        <v>6.290438770154672</v>
+        <v>6.302764142221313</v>
       </c>
       <c r="H18">
-        <v>4.690358070454852</v>
+        <v>4.713576191916358</v>
       </c>
       <c r="I18">
-        <v>31.0478467032792</v>
+        <v>30.84160459797739</v>
       </c>
     </row>
     <row r="19">
@@ -1492,22 +1492,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>6.260710371970971</v>
+        <v>6.217978388505959</v>
       </c>
       <c r="E19">
-        <v>10.83140849453054</v>
+        <v>10.82920037489753</v>
       </c>
       <c r="F19">
-        <v>1.383514881955629</v>
+        <v>1.388522307111683</v>
       </c>
       <c r="G19">
-        <v>9.472526557899618</v>
+        <v>9.552771786802744</v>
       </c>
       <c r="H19">
-        <v>4.430141773189364</v>
+        <v>4.395522721089295</v>
       </c>
       <c r="I19">
-        <v>35.17453601440596</v>
+        <v>35.07247422850216</v>
       </c>
     </row>
   </sheetData>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.224490497645601</v>
+        <v>4.256692498834147</v>
       </c>
       <c r="E2">
-        <v>12.9595006062886</v>
+        <v>12.95317738991303</v>
       </c>
       <c r="F2">
-        <v>2.161637500314995</v>
+        <v>2.136887387523533</v>
       </c>
       <c r="G2">
-        <v>4.569910257609672</v>
+        <v>4.556747457829819</v>
       </c>
       <c r="H2">
-        <v>4.517558294948852</v>
+        <v>4.594263282954483</v>
       </c>
       <c r="I2">
-        <v>27.15979895042662</v>
+        <v>27.23339171479925</v>
       </c>
     </row>
     <row r="3">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.571088899148274</v>
+        <v>5.591483198573632</v>
       </c>
       <c r="E3">
-        <v>12.52636512590528</v>
+        <v>12.46415753164754</v>
       </c>
       <c r="F3">
-        <v>1.09940014221984</v>
+        <v>1.11847590775028</v>
       </c>
       <c r="G3">
-        <v>5.669966519639665</v>
+        <v>5.678527365347705</v>
       </c>
       <c r="H3">
-        <v>5.22700497747986</v>
+        <v>5.221024633910661</v>
       </c>
       <c r="I3">
-        <v>29.23547160160873</v>
+        <v>29.34258646781537</v>
       </c>
     </row>
     <row r="4">
@@ -1639,22 +1639,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.201095473576643</v>
+        <v>8.293876075534103</v>
       </c>
       <c r="E4">
-        <v>12.35876264440716</v>
+        <v>12.43765188123565</v>
       </c>
       <c r="F4">
-        <v>0.8990697057590356</v>
+        <v>0.9052541700143872</v>
       </c>
       <c r="G4">
-        <v>8.705318333484925</v>
+        <v>8.681038058125717</v>
       </c>
       <c r="H4">
-        <v>4.549439077649162</v>
+        <v>4.575495446647329</v>
       </c>
       <c r="I4">
-        <v>33.49289014177118</v>
+        <v>33.6052350462008</v>
       </c>
     </row>
     <row r="5">
@@ -1668,22 +1668,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4.402069305750762</v>
+        <v>4.403882596003977</v>
       </c>
       <c r="E5">
-        <v>11.26614482703589</v>
+        <v>11.34605102838468</v>
       </c>
       <c r="F5">
-        <v>3.327879908618421</v>
+        <v>3.346775163079887</v>
       </c>
       <c r="G5">
-        <v>5.171973572328044</v>
+        <v>5.14314132541165</v>
       </c>
       <c r="H5">
-        <v>2.854887748584536</v>
+        <v>2.924833005348791</v>
       </c>
       <c r="I5">
-        <v>25.48811793231</v>
+        <v>25.58629475075116</v>
       </c>
     </row>
     <row r="6">
@@ -1697,22 +1697,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5.996271079312429</v>
+        <v>6.007315089367436</v>
       </c>
       <c r="E6">
-        <v>11.27820452833804</v>
+        <v>11.38815762922967</v>
       </c>
       <c r="F6">
-        <v>2.120261137984103</v>
+        <v>2.146422958941124</v>
       </c>
       <c r="G6">
-        <v>6.127059162393062</v>
+        <v>6.180642404537666</v>
       </c>
       <c r="H6">
-        <v>3.530556899214757</v>
+        <v>3.526353084365793</v>
       </c>
       <c r="I6">
-        <v>27.51633910310526</v>
+        <v>27.48580195143943</v>
       </c>
     </row>
     <row r="7">
@@ -1726,22 +1726,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>8.81482317205208</v>
+        <v>8.84203135150242</v>
       </c>
       <c r="E7">
-        <v>11.02975994425778</v>
+        <v>11.1182398372436</v>
       </c>
       <c r="F7">
-        <v>1.446083371954115</v>
+        <v>1.452453933578089</v>
       </c>
       <c r="G7">
-        <v>9.911700899016552</v>
+        <v>9.95719610067664</v>
       </c>
       <c r="H7">
-        <v>3.323650895808166</v>
+        <v>3.36622040633456</v>
       </c>
       <c r="I7">
-        <v>32.39566759538922</v>
+        <v>32.4177927172097</v>
       </c>
     </row>
     <row r="8">
@@ -1755,22 +1755,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>4.384830198392542</v>
+        <v>4.470177717533121</v>
       </c>
       <c r="E8">
-        <v>13.83166730115009</v>
+        <v>14.01078937728618</v>
       </c>
       <c r="F8">
-        <v>3.332486252361741</v>
+        <v>3.292693361795122</v>
       </c>
       <c r="G8">
-        <v>6.168264968886993</v>
+        <v>6.122973166851871</v>
       </c>
       <c r="H8">
-        <v>4.119690286637399</v>
+        <v>4.176651947306205</v>
       </c>
       <c r="I8">
-        <v>29.84652249373146</v>
+        <v>30.04020679307187</v>
       </c>
     </row>
     <row r="9">
@@ -1784,22 +1784,22 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>5.869715939401377</v>
+        <v>5.956828091896902</v>
       </c>
       <c r="E9">
-        <v>13.43474399224737</v>
+        <v>13.57696011058225</v>
       </c>
       <c r="F9">
-        <v>1.790775453990876</v>
+        <v>1.745396298010272</v>
       </c>
       <c r="G9">
-        <v>7.811760992815051</v>
+        <v>7.748336694388891</v>
       </c>
       <c r="H9">
-        <v>5.275517501780628</v>
+        <v>5.287759647953224</v>
       </c>
       <c r="I9">
-        <v>31.87768627911773</v>
+        <v>32.11435619213515</v>
       </c>
     </row>
     <row r="10">
@@ -1813,22 +1813,22 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>8.29520697112271</v>
+        <v>8.494022630689349</v>
       </c>
       <c r="E10">
-        <v>13.08638840454448</v>
+        <v>13.15361984755628</v>
       </c>
       <c r="F10">
-        <v>1.774553441476476</v>
+        <v>1.813972295338176</v>
       </c>
       <c r="G10">
-        <v>11.29835689196456</v>
+        <v>11.2339212405544</v>
       </c>
       <c r="H10">
-        <v>4.530934458307509</v>
+        <v>4.547467677358317</v>
       </c>
       <c r="I10">
-        <v>35.66858360993717</v>
+        <v>35.96847775770305</v>
       </c>
     </row>
     <row r="11">
@@ -1842,22 +1842,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.823884472895354</v>
+        <v>3.804443681106743</v>
       </c>
       <c r="E11">
-        <v>12.91439019396947</v>
+        <v>12.89411914577831</v>
       </c>
       <c r="F11">
-        <v>1.98555940702834</v>
+        <v>2.015268225529188</v>
       </c>
       <c r="G11">
-        <v>4.593234509917552</v>
+        <v>4.580038366294837</v>
       </c>
       <c r="H11">
-        <v>4.119789526157826</v>
+        <v>4.114684112925284</v>
       </c>
       <c r="I11">
-        <v>25.92074153854205</v>
+        <v>25.90784087867124</v>
       </c>
     </row>
     <row r="12">
@@ -1871,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.021811054541396</v>
+        <v>5.033622084861115</v>
       </c>
       <c r="E12">
-        <v>13.23416149929261</v>
+        <v>13.21995254916233</v>
       </c>
       <c r="F12">
-        <v>1.180262211470446</v>
+        <v>1.187405888866314</v>
       </c>
       <c r="G12">
-        <v>6.166571707856431</v>
+        <v>6.211161032027697</v>
       </c>
       <c r="H12">
-        <v>4.94432125414332</v>
+        <v>4.905848397469336</v>
       </c>
       <c r="I12">
-        <v>29.55411618395059</v>
+        <v>29.54775418573692</v>
       </c>
     </row>
     <row r="13">
@@ -1900,22 +1900,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.053395492757094</v>
+        <v>8.092657048072777</v>
       </c>
       <c r="E13">
-        <v>12.15752190502719</v>
+        <v>12.08132071930309</v>
       </c>
       <c r="F13">
-        <v>1.024609020312393</v>
+        <v>1.018469392633232</v>
       </c>
       <c r="G13">
-        <v>10.12702089835671</v>
+        <v>10.15095743045592</v>
       </c>
       <c r="H13">
-        <v>4.837280640627423</v>
+        <v>4.828027738263803</v>
       </c>
       <c r="I13">
-        <v>34.72337513514233</v>
+        <v>34.7278474549893</v>
       </c>
     </row>
     <row r="14">
@@ -1929,22 +1929,22 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3.508418635802922</v>
+        <v>3.511511680709298</v>
       </c>
       <c r="E14">
-        <v>12.10326518491705</v>
+        <v>12.27764510965597</v>
       </c>
       <c r="F14">
-        <v>3.003283634359479</v>
+        <v>3.007406195720603</v>
       </c>
       <c r="G14">
-        <v>4.006080069667345</v>
+        <v>3.907927922785035</v>
       </c>
       <c r="H14">
-        <v>2.932340608128375</v>
+        <v>2.891326946023784</v>
       </c>
       <c r="I14">
-        <v>23.98995739961828</v>
+        <v>24.13460367046321</v>
       </c>
     </row>
     <row r="15">
@@ -1958,22 +1958,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>4.944652025535462</v>
+        <v>4.948421866769015</v>
       </c>
       <c r="E15">
-        <v>12.85622317311035</v>
+        <v>13.05272951596578</v>
       </c>
       <c r="F15">
-        <v>1.944219936768671</v>
+        <v>1.944796483771572</v>
       </c>
       <c r="G15">
-        <v>5.653553856440318</v>
+        <v>5.716489159262371</v>
       </c>
       <c r="H15">
-        <v>3.802274868621346</v>
+        <v>3.836443570030113</v>
       </c>
       <c r="I15">
-        <v>27.84989895515501</v>
+        <v>28.04755934296919</v>
       </c>
     </row>
     <row r="16">
@@ -1987,22 +1987,22 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>8.237381859367328</v>
+        <v>8.150587429574443</v>
       </c>
       <c r="E16">
-        <v>11.73695748464439</v>
+        <v>11.85845903423906</v>
       </c>
       <c r="F16">
-        <v>1.599818519419911</v>
+        <v>1.630404679921816</v>
       </c>
       <c r="G16">
-        <v>10.06712000773749</v>
+        <v>10.06757291311117</v>
       </c>
       <c r="H16">
-        <v>4.082024733403355</v>
+        <v>4.098288388283808</v>
       </c>
       <c r="I16">
-        <v>33.59935341454457</v>
+        <v>33.62176295590479</v>
       </c>
     </row>
     <row r="17">
@@ -2016,22 +2016,22 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>3.982009806389208</v>
+        <v>3.976047361273016</v>
       </c>
       <c r="E17">
-        <v>13.91034257268775</v>
+        <v>13.9439361453745</v>
       </c>
       <c r="F17">
-        <v>3.613070176455209</v>
+        <v>3.592854298032691</v>
       </c>
       <c r="G17">
-        <v>5.670434557972591</v>
+        <v>5.629393273288296</v>
       </c>
       <c r="H17">
-        <v>4.71524573875255</v>
+        <v>4.69517642086826</v>
       </c>
       <c r="I17">
-        <v>30.07530483229502</v>
+        <v>29.95392645569238</v>
       </c>
     </row>
     <row r="18">
@@ -2045,22 +2045,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>5.312482226062638</v>
+        <v>5.353040603384041</v>
       </c>
       <c r="E18">
-        <v>14.43640896857146</v>
+        <v>14.46837529185518</v>
       </c>
       <c r="F18">
-        <v>2.286590823060881</v>
+        <v>2.252047177628755</v>
       </c>
       <c r="G18">
-        <v>7.546360764764408</v>
+        <v>7.544775704712444</v>
       </c>
       <c r="H18">
-        <v>5.94005877257846</v>
+        <v>5.899793430334121</v>
       </c>
       <c r="I18">
-        <v>33.45927675851475</v>
+        <v>33.49582256334225</v>
       </c>
     </row>
     <row r="19">
@@ -2074,22 +2074,22 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>8.05347706877907</v>
+        <v>8.134542413549829</v>
       </c>
       <c r="E19">
-        <v>13.1077284340293</v>
+        <v>12.98248716053107</v>
       </c>
       <c r="F19">
-        <v>2.190031411577109</v>
+        <v>2.191532792616947</v>
       </c>
       <c r="G19">
-        <v>11.69131770711375</v>
+        <v>11.58242082028629</v>
       </c>
       <c r="H19">
-        <v>5.806752703631224</v>
+        <v>5.829590664995862</v>
       </c>
       <c r="I19">
-        <v>37.73273522661981</v>
+        <v>37.73530608636288</v>
       </c>
     </row>
   </sheetData>
